--- a/Sling Service MasterAudio1222019.xlsx
+++ b/Sling Service MasterAudio1222019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BroadcastEngineers\IPTV Monitoring\--MASTER--Sling Services--MASTER--\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjr10\OneDrive\git\SentryAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE9F00-79FA-44F8-AA29-C094A09596FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE9F00-79FA-44F8-AA29-C094A09596FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22800" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1800" windowWidth="22800" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -35,10 +35,15 @@
     <definedName name="DvListSource8">[1]Sheet2!$O$1:$O$216</definedName>
     <definedName name="DvListSource9">[1]Sheet2!$Q$1:$Q$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -18246,8 +18251,8 @@
   <dimension ref="A1:AB855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A835" sqref="A835:XFD843"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
